--- a/HRBackend/uploads/penta3d.xlsx
+++ b/HRBackend/uploads/penta3d.xlsx
@@ -5,123 +5,129 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\AUG 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\SEP 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF33633-F19F-47E5-B6F6-7255B127662B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7648D52-B421-4DB0-A6D5-2CD029EA371F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceRecord" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="262">
   <si>
     <t>Employee ID</t>
   </si>
   <si>
+    <t>Card No.</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Department</t>
   </si>
   <si>
-    <t>2023/07/21</t>
-  </si>
-  <si>
-    <t>2023/07/22</t>
-  </si>
-  <si>
-    <t>2023/07/23</t>
-  </si>
-  <si>
-    <t>2023/07/24</t>
-  </si>
-  <si>
-    <t>2023/07/25</t>
-  </si>
-  <si>
-    <t>2023/07/26</t>
-  </si>
-  <si>
-    <t>2023/07/27</t>
-  </si>
-  <si>
-    <t>2023/07/28</t>
-  </si>
-  <si>
-    <t>2023/07/29</t>
-  </si>
-  <si>
-    <t>2023/07/30</t>
-  </si>
-  <si>
-    <t>2023/07/31</t>
-  </si>
-  <si>
-    <t>2023/08/01</t>
-  </si>
-  <si>
-    <t>2023/08/02</t>
-  </si>
-  <si>
-    <t>2023/08/03</t>
-  </si>
-  <si>
-    <t>2023/08/04</t>
-  </si>
-  <si>
-    <t>2023/08/05</t>
-  </si>
-  <si>
-    <t>2023/08/06</t>
-  </si>
-  <si>
-    <t>2023/08/07</t>
-  </si>
-  <si>
-    <t>2023/08/08</t>
-  </si>
-  <si>
-    <t>2023/08/09</t>
-  </si>
-  <si>
-    <t>2023/08/10</t>
-  </si>
-  <si>
-    <t>2023/08/11</t>
-  </si>
-  <si>
-    <t>2023/08/12</t>
-  </si>
-  <si>
-    <t>2023/08/13</t>
-  </si>
-  <si>
-    <t>2023/08/14</t>
-  </si>
-  <si>
-    <t>2023/08/15</t>
-  </si>
-  <si>
-    <t>2023/08/16</t>
-  </si>
-  <si>
-    <t>2023/08/17</t>
-  </si>
-  <si>
-    <t>2023/08/18</t>
-  </si>
-  <si>
-    <t>2023/08/19</t>
-  </si>
-  <si>
-    <t>2023/08/20</t>
+    <t>2023/08/21</t>
+  </si>
+  <si>
+    <t>2023/08/22</t>
+  </si>
+  <si>
+    <t>2023/08/23</t>
+  </si>
+  <si>
+    <t>2023/08/24</t>
+  </si>
+  <si>
+    <t>2023/08/25</t>
+  </si>
+  <si>
+    <t>2023/08/26</t>
+  </si>
+  <si>
+    <t>2023/08/27</t>
+  </si>
+  <si>
+    <t>2023/08/28</t>
+  </si>
+  <si>
+    <t>2023/08/29</t>
+  </si>
+  <si>
+    <t>2023/08/30</t>
+  </si>
+  <si>
+    <t>2023/08/31</t>
+  </si>
+  <si>
+    <t>2023/09/01</t>
+  </si>
+  <si>
+    <t>2023/09/02</t>
+  </si>
+  <si>
+    <t>2023/09/03</t>
+  </si>
+  <si>
+    <t>2023/09/04</t>
+  </si>
+  <si>
+    <t>2023/09/05</t>
+  </si>
+  <si>
+    <t>2023/09/06</t>
+  </si>
+  <si>
+    <t>2023/09/07</t>
+  </si>
+  <si>
+    <t>2023/09/08</t>
+  </si>
+  <si>
+    <t>2023/09/09</t>
+  </si>
+  <si>
+    <t>2023/09/10</t>
+  </si>
+  <si>
+    <t>2023/09/11</t>
+  </si>
+  <si>
+    <t>2023/09/12</t>
+  </si>
+  <si>
+    <t>2023/09/13</t>
+  </si>
+  <si>
+    <t>2023/09/14</t>
+  </si>
+  <si>
+    <t>2023/09/15</t>
+  </si>
+  <si>
+    <t>2023/09/16</t>
+  </si>
+  <si>
+    <t>2023/09/17</t>
+  </si>
+  <si>
+    <t>2023/09/18</t>
+  </si>
+  <si>
+    <t>2023/09/19</t>
+  </si>
+  <si>
+    <t>2023/09/20</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Company</t>
@@ -133,16 +139,139 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>Farag</t>
-  </si>
-  <si>
-    <t>07:52 17:37
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:44 17:15
+    <t>08:09 18:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:16 17:33
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:58 19:57
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:17 18:46
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:17 12:27
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:06 17:48
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:03 18:40
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:07 20:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:30 19:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:35 18:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:05 18:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:10 18:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:55 19:58
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:06 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:31 18:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:32 18:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:44 17:23
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:15 17:32
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:09 17:33
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:47 17:31
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:59 18:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:46 17:35
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:01 17:15
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -151,109 +280,133 @@
     <t>Mai</t>
   </si>
   <si>
-    <t>09:21 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:18
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:13
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:11 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:11 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:10 16:21
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 17:16
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:28 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:01 16:33
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:19 17:57
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:14 17:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:37 17:26
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:23 17:25
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:26 17:29
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 17:11
+    <t>09:34 16:39
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:35 17:20
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:06 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:19 18:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:35 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 17:16
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 17:20
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 17:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:17 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:58
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:25 18:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:00 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:57 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:34 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:41 16:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 16:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:07 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:24 17:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:44 16:22
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -262,43 +415,85 @@
     <t>Aaziz</t>
   </si>
   <si>
-    <t>09:12 16:50
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:00 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:08 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:41
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:34 17:44
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:46 18:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:58 16:39
+    <t>09:18 16:45
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:21 17:20
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:17 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:27 17:49
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 17:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 18:32
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:07 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:57 10:32
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:02 16:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 16:35
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -307,7 +502,97 @@
     <t>Yasser</t>
   </si>
   <si>
-    <t>11:50 14:15
+    <t>09:15 16:39
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:14 17:23
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:06 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:25 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:25 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 17:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:19 17:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 18:12
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:07 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:28 16:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:28 16:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 16:35
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -319,67 +604,499 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>09:06 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 15:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:07 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:06 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:22 17:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:25 16:40
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:10 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:11 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:16
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 17:19
+    <t>09:05 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Abdrahman</t>
+  </si>
+  <si>
+    <t>09:05 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:54 15:20
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:05 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:00 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>17:14 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Walid Radwan</t>
+  </si>
+  <si>
+    <t>09:18 12:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:21 16:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:17 19:57
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:27 18:32
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:00 15:23
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:39 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:35 18:20
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:32 20:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 18:28
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 15:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:16 18:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 18:47
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>M Sheref</t>
+  </si>
+  <si>
+    <t>08:51 17:50
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:02 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:04 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:55 17:44
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:23 16:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:18 17:39
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 19:43
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 16:22
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 10:49
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:30 12:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 16:29
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Msaeed</t>
+  </si>
+  <si>
+    <t>Bassem</t>
+  </si>
+  <si>
+    <t>08:55 16:47
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:51 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:41 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:00 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:52 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:58 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:43 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 17:12
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:05 16:53
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:05 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:54 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>M Gamal</t>
+  </si>
+  <si>
+    <t>17:11 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>A Fayez</t>
+  </si>
+  <si>
+    <t>08:33 16:47
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:18 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:41 16:55
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:37 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:22 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:27 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:34 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:40 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:34 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:49 10:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:44 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:37 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:37 17:12
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:37 16:53
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:24 16:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:42 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:30 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>09:42 17:43
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:51 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:48
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:38 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:33 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:24 17:09
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -391,439 +1108,73 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>09:18 14:53
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:10 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Abdrahman</t>
-  </si>
-  <si>
-    <t>09:20 15:44
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:02 15:13
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:53 17:13
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:12
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>13:13 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:46 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>13:14 16:39
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Walid Radwan</t>
-  </si>
-  <si>
-    <t>10:14 15:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>11:03 18:40
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>12:03 15:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:47 17:46
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:34 12:32
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>11:59 18:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:17 17:18
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>M Sheref</t>
-  </si>
-  <si>
-    <t>09:54 15:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:41 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:24 16:51
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>15:39 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Msaeed</t>
-  </si>
-  <si>
-    <t>07:08 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:09 18:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:24 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:29 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Bassem</t>
-  </si>
-  <si>
-    <t>08:50 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:48 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:34 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:50 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:43 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:51 17:18
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 16:52
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>M Gamal</t>
-  </si>
-  <si>
-    <t>A Fayez</t>
-  </si>
-  <si>
-    <t>08:38 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:31 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:31 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:30 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:30 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:38 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:31 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:23 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:26 16:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:20 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:30 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:28 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:34 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:21 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:43 16:57
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:38 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:52 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:51 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Amr</t>
-  </si>
-  <si>
-    <t>10:06 16:58
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:33 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:51 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:46 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:35 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:47 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:59 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:24 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:12 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>13:05 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:44 17:39
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>13:26 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:32 17:13
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:28 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>12:44 16:54
+    <t>09:27 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:26 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:39 17:15
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 17:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:32 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:43 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:44 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:12
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 17:23
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:39 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:04 18:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:00
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -835,109 +1186,133 @@
     <t>H</t>
   </si>
   <si>
-    <t>09:12 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:27 17:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 16:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:15 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:25 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:02 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:30 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:01 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 17:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:30 17:23
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:04 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:11 --:--
+    <t>09:09 16:39
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:14 17:20
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>17:23 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:15 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:58 17:15
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:06 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:15 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:28
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:57 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:00 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 16:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 16:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:23 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:02 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 17:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 16:11
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -946,88 +1321,121 @@
     <t>M Yehia</t>
   </si>
   <si>
+    <t>08:52 16:47
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
     <t>08:57 17:00
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
   </si>
   <si>
+    <t>08:45 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:58 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
     <t>08:53 17:00
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
   </si>
   <si>
-    <t>08:57 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:55 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:38 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:58 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:00 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:52 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:01 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:57 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:44 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:48 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:58 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:49 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
+    <t>17:04 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:48 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:46 13:25
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:55 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:15
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>17:02 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:52 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:46 16:53
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:45 16:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:53 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:49 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Farag penta</t>
   </si>
 </sst>
 </file>
@@ -1057,17 +1465,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -1103,13 +1511,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,15 +1902,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="256" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18" customHeight="1">
+    <row r="1" spans="1:35" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1923,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1605,1565 +2016,1613 @@
       <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" ht="63" customHeight="1">
+    <row r="2" spans="1:35" ht="63" customHeight="1">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="63" customHeight="1">
+    <row r="3" spans="1:35" ht="63" customHeight="1">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="63" customHeight="1">
+    <row r="4" spans="1:35" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="63" customHeight="1">
+    <row r="5" spans="1:35" ht="63" customHeight="1">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="T5" s="4" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>35</v>
+        <v>118</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="63" customHeight="1">
+    <row r="6" spans="1:35" ht="63" customHeight="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="63" customHeight="1">
+    <row r="7" spans="1:35" ht="63" customHeight="1">
       <c r="A7" s="4">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="63" customHeight="1">
+    <row r="8" spans="1:35" ht="63" customHeight="1">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="63" customHeight="1">
+    <row r="9" spans="1:35" ht="63" customHeight="1">
       <c r="A9" s="4">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="63" customHeight="1">
+    <row r="10" spans="1:35" ht="63" customHeight="1">
       <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="63" customHeight="1">
+    <row r="11" spans="1:35" ht="63" customHeight="1">
       <c r="A11" s="4">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="63" customHeight="1">
+    <row r="12" spans="1:35" ht="63" customHeight="1">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>141</v>
+        <v>196</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="63" customHeight="1">
+    <row r="13" spans="1:35" ht="63" customHeight="1">
       <c r="A13" s="4">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>157</v>
+        <v>37</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="63" customHeight="1">
+    <row r="14" spans="1:35" ht="63" customHeight="1">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="63" customHeight="1">
+    <row r="15" spans="1:35" ht="63" customHeight="1">
       <c r="A15" s="4">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>177</v>
+        <v>239</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="63" customHeight="1">
+    <row r="16" spans="1:35" ht="63" customHeight="1">
       <c r="A16" s="1">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>35</v>
+        <v>259</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/uploads/penta3d.xlsx
+++ b/HRBackend/uploads/penta3d.xlsx
@@ -5,129 +5,123 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\SEP 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\AUG 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7648D52-B421-4DB0-A6D5-2CD029EA371F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF33633-F19F-47E5-B6F6-7255B127662B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceRecord" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="193">
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Card No.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Department</t>
   </si>
   <si>
-    <t>2023/08/21</t>
-  </si>
-  <si>
-    <t>2023/08/22</t>
-  </si>
-  <si>
-    <t>2023/08/23</t>
-  </si>
-  <si>
-    <t>2023/08/24</t>
-  </si>
-  <si>
-    <t>2023/08/25</t>
-  </si>
-  <si>
-    <t>2023/08/26</t>
-  </si>
-  <si>
-    <t>2023/08/27</t>
-  </si>
-  <si>
-    <t>2023/08/28</t>
-  </si>
-  <si>
-    <t>2023/08/29</t>
-  </si>
-  <si>
-    <t>2023/08/30</t>
-  </si>
-  <si>
-    <t>2023/08/31</t>
-  </si>
-  <si>
-    <t>2023/09/01</t>
-  </si>
-  <si>
-    <t>2023/09/02</t>
-  </si>
-  <si>
-    <t>2023/09/03</t>
-  </si>
-  <si>
-    <t>2023/09/04</t>
-  </si>
-  <si>
-    <t>2023/09/05</t>
-  </si>
-  <si>
-    <t>2023/09/06</t>
-  </si>
-  <si>
-    <t>2023/09/07</t>
-  </si>
-  <si>
-    <t>2023/09/08</t>
-  </si>
-  <si>
-    <t>2023/09/09</t>
-  </si>
-  <si>
-    <t>2023/09/10</t>
-  </si>
-  <si>
-    <t>2023/09/11</t>
-  </si>
-  <si>
-    <t>2023/09/12</t>
-  </si>
-  <si>
-    <t>2023/09/13</t>
-  </si>
-  <si>
-    <t>2023/09/14</t>
-  </si>
-  <si>
-    <t>2023/09/15</t>
-  </si>
-  <si>
-    <t>2023/09/16</t>
-  </si>
-  <si>
-    <t>2023/09/17</t>
-  </si>
-  <si>
-    <t>2023/09/18</t>
-  </si>
-  <si>
-    <t>2023/09/19</t>
-  </si>
-  <si>
-    <t>2023/09/20</t>
-  </si>
-  <si>
-    <t/>
+    <t>2023/07/21</t>
+  </si>
+  <si>
+    <t>2023/07/22</t>
+  </si>
+  <si>
+    <t>2023/07/23</t>
+  </si>
+  <si>
+    <t>2023/07/24</t>
+  </si>
+  <si>
+    <t>2023/07/25</t>
+  </si>
+  <si>
+    <t>2023/07/26</t>
+  </si>
+  <si>
+    <t>2023/07/27</t>
+  </si>
+  <si>
+    <t>2023/07/28</t>
+  </si>
+  <si>
+    <t>2023/07/29</t>
+  </si>
+  <si>
+    <t>2023/07/30</t>
+  </si>
+  <si>
+    <t>2023/07/31</t>
+  </si>
+  <si>
+    <t>2023/08/01</t>
+  </si>
+  <si>
+    <t>2023/08/02</t>
+  </si>
+  <si>
+    <t>2023/08/03</t>
+  </si>
+  <si>
+    <t>2023/08/04</t>
+  </si>
+  <si>
+    <t>2023/08/05</t>
+  </si>
+  <si>
+    <t>2023/08/06</t>
+  </si>
+  <si>
+    <t>2023/08/07</t>
+  </si>
+  <si>
+    <t>2023/08/08</t>
+  </si>
+  <si>
+    <t>2023/08/09</t>
+  </si>
+  <si>
+    <t>2023/08/10</t>
+  </si>
+  <si>
+    <t>2023/08/11</t>
+  </si>
+  <si>
+    <t>2023/08/12</t>
+  </si>
+  <si>
+    <t>2023/08/13</t>
+  </si>
+  <si>
+    <t>2023/08/14</t>
+  </si>
+  <si>
+    <t>2023/08/15</t>
+  </si>
+  <si>
+    <t>2023/08/16</t>
+  </si>
+  <si>
+    <t>2023/08/17</t>
+  </si>
+  <si>
+    <t>2023/08/18</t>
+  </si>
+  <si>
+    <t>2023/08/19</t>
+  </si>
+  <si>
+    <t>2023/08/20</t>
   </si>
   <si>
     <t>Company</t>
@@ -139,139 +133,16 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>08:09 18:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:16 17:33
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:58 19:57
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:17 18:46
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:17 12:27
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:06 17:48
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:03 18:40
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:07 20:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:30 19:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:35 18:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:05 18:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:10 18:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:55 19:58
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:06 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:31 18:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:32 18:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:44 17:23
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:15 17:32
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:09 17:33
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:47 17:31
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:59 18:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:46 17:35
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:01 17:15
+    <t>Farag</t>
+  </si>
+  <si>
+    <t>07:52 17:37
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:44 17:15
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -280,13 +151,169 @@
     <t>Mai</t>
   </si>
   <si>
-    <t>09:34 16:39
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:35 17:20
+    <t>09:21 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 16:21
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:16
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:28 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 16:33
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:19 17:57
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:14 17:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:37 17:26
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:23 17:25
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:26 17:29
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 17:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Aaziz</t>
+  </si>
+  <si>
+    <t>09:12 16:50
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:00 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:41
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:34 17:44
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:46 18:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:58 16:39
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Yasser</t>
+  </si>
+  <si>
+    <t>11:50 14:15
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 17:00
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -298,172 +325,7 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>09:19 18:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:04 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:35 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:29 17:16
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:29 17:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:29 17:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:17 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 17:58
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:25 18:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:00 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:57 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:34 17:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:41 16:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 16:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:29 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:07 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:24 17:24
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:44 16:22
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Aaziz</t>
-  </si>
-  <si>
-    <t>09:18 16:45
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:21 17:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:17 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:27 17:49
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 17:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:11 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 18:32
+    <t>09:20 15:17
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -475,70 +337,43 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>09:04 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:57 10:32
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:02 16:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 16:35
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Yasser</t>
-  </si>
-  <si>
-    <t>09:15 16:39
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:04 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:14 17:23
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:06 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:25 17:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:25 17:05
+    <t>09:06 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:22 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:25 16:40
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 17:16
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -550,73 +385,25 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>09:19 17:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:01 18:12
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:07 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:28 16:24
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:28 16:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 16:35
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:10 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:05 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:04
+    <t>09:19 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 14:53
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 17:15
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -625,61 +412,55 @@
     <t>Abdrahman</t>
   </si>
   <si>
-    <t>09:05 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 17:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:04 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:54 15:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:08 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:05 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:00 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 17:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:14 --:--
+    <t>09:20 15:44
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:02 15:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:15
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:53 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:12
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>13:13 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:46 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>13:14 16:39
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -688,61 +469,469 @@
     <t>Walid Radwan</t>
   </si>
   <si>
-    <t>09:18 12:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:21 16:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:17 19:57
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:27 18:32
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:00 15:23
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:39 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:35 18:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>11:32 20:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 18:28
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 15:56
+    <t>10:14 15:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:03 18:40
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>12:03 15:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:47 17:46
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:34 12:32
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:59 18:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:17 17:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>M Sheref</t>
+  </si>
+  <si>
+    <t>09:54 15:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:41 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:24 16:51
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>15:39 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Msaeed</t>
+  </si>
+  <si>
+    <t>07:08 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:09 18:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>06:24 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>06:29 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Bassem</t>
+  </si>
+  <si>
+    <t>08:50 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:48 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:34 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:43 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:51 17:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 16:52
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>M Gamal</t>
+  </si>
+  <si>
+    <t>A Fayez</t>
+  </si>
+  <si>
+    <t>08:38 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:31 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:31 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:30 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:30 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:38 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:31 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:23 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:26 16:56
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:20 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:30 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:28 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:34 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:21 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:43 16:57
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:38 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:52 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:51 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>10:06 16:58
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:33 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:51 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:46 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:35 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:47 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:59 17:15
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:24 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:12 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>13:05 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:44 17:39
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>13:26 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:32 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:28 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>12:44 16:54
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Habiba</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>09:12 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:27 17:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 16:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:59 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:15 16:59
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:25 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:02 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:30 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 17:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:36
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:30 17:23
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 17:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:15
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -754,136 +943,34 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>11:16 18:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 18:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>M Sheref</t>
-  </si>
-  <si>
-    <t>08:51 17:50
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:02 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:04 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:08 17:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:55 17:44
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:23 16:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:18 17:39
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:04 19:43
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:01 16:22
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 10:49
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:30 12:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 16:29
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Msaeed</t>
-  </si>
-  <si>
-    <t>Bassem</t>
-  </si>
-  <si>
-    <t>08:55 16:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:51 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:41 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:00 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:52 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:01
+    <t>M Yehia</t>
+  </si>
+  <si>
+    <t>08:57 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:53 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:57 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:55 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:38 17:01
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -895,547 +982,52 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>08:43 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:12
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:05 16:53
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:05 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:50 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:54 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>M Gamal</t>
-  </si>
-  <si>
-    <t>17:11 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>A Fayez</t>
-  </si>
-  <si>
-    <t>08:33 16:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:18 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:41 16:55
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:37 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:22 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:27 17:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:34 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:40 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:34 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:49 10:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:44 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:37 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:37 17:12
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:37 16:53
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:24 16:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:42 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:50 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:30 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Amr</t>
-  </si>
-  <si>
-    <t>09:42 17:43
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:51 17:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 17:48
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:38 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:33 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:24 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:19 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:27 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:26 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:39 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:29 17:18
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:32 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:43 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:44 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 17:12
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:23
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:39 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:04 18:24
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Habiba</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>09:09 16:39
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:14 17:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:23 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:15 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:58 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:06 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:15 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:09 17:28
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:57 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:18 17:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:00 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:10 16:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 16:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:23 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:02 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:16 17:24
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:08 16:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>M Yehia</t>
-  </si>
-  <si>
-    <t>08:52 16:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:57 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:45 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:58 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:53 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:04 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:48 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:46 13:25
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:01 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:55 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:50 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:02 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:52 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:50 17:06
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:46 16:53
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:45 16:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:53 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:50 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:49 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Farag penta</t>
+    <t>09:00 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:52 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:57 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:44 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:48 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:58 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:49 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
   </si>
 </sst>
 </file>
@@ -1465,17 +1057,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -1511,13 +1103,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1902,18 +1494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="256" width="17" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="18" customHeight="1">
+    <row r="1" spans="1:34" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1512,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2016,1613 +1605,1565 @@
       <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" ht="63" customHeight="1">
+    <row r="2" spans="1:34" ht="63" customHeight="1">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="3" spans="1:35" ht="63" customHeight="1">
+    <row r="3" spans="1:34" ht="63" customHeight="1">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="63" customHeight="1">
+    <row r="4" spans="1:34" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="63" customHeight="1">
+    <row r="5" spans="1:34" ht="63" customHeight="1">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="63" customHeight="1">
+    <row r="6" spans="1:34" ht="63" customHeight="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="63" customHeight="1">
+    <row r="7" spans="1:34" ht="63" customHeight="1">
       <c r="A7" s="4">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="63" customHeight="1">
+    <row r="8" spans="1:34" ht="63" customHeight="1">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="63" customHeight="1">
+    <row r="9" spans="1:34" ht="63" customHeight="1">
       <c r="A9" s="4">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="63" customHeight="1">
+    <row r="10" spans="1:34" ht="63" customHeight="1">
       <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="63" customHeight="1">
+    <row r="11" spans="1:34" ht="63" customHeight="1">
       <c r="A11" s="4">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="63" customHeight="1">
+    <row r="12" spans="1:34" ht="63" customHeight="1">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="63" customHeight="1">
+    <row r="13" spans="1:34" ht="63" customHeight="1">
       <c r="A13" s="4">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI13" s="4" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="63" customHeight="1">
+    <row r="14" spans="1:34" ht="63" customHeight="1">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="63" customHeight="1">
+    <row r="15" spans="1:34" ht="63" customHeight="1">
       <c r="A15" s="4">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI15" s="4" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="63" customHeight="1">
+    <row r="16" spans="1:34" ht="63" customHeight="1">
       <c r="A16" s="1">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/uploads/penta3d.xlsx
+++ b/HRBackend/uploads/penta3d.xlsx
@@ -1,103 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\MAY 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E613408-ACA3-4F8F-ADFD-2E79192CE5EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCBC737-42A5-4A41-87B7-87144C366229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceRecord" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Card No.</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>2023/04/23</t>
-  </si>
-  <si>
-    <t>2023/04/24</t>
-  </si>
-  <si>
-    <t>2023/04/25</t>
-  </si>
-  <si>
-    <t>2023/04/26</t>
-  </si>
-  <si>
-    <t>2023/04/27</t>
-  </si>
-  <si>
-    <t>2023/04/30</t>
-  </si>
-  <si>
-    <t>2023/05/01</t>
-  </si>
-  <si>
-    <t>2023/05/02</t>
-  </si>
-  <si>
-    <t>2023/05/03</t>
-  </si>
-  <si>
-    <t>2023/05/04</t>
-  </si>
-  <si>
-    <t>2023/05/07</t>
-  </si>
-  <si>
-    <t>2023/05/08</t>
-  </si>
-  <si>
-    <t>2023/05/09</t>
-  </si>
-  <si>
-    <t>2023/05/10</t>
-  </si>
-  <si>
-    <t>2023/05/11</t>
-  </si>
-  <si>
-    <t>2023/05/14</t>
-  </si>
-  <si>
-    <t>2023/05/15</t>
-  </si>
-  <si>
-    <t>2023/05/16</t>
-  </si>
-  <si>
-    <t>2023/05/17</t>
-  </si>
-  <si>
-    <t>2023/05/18</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Company</t>
+    <t>2023/09/21</t>
+  </si>
+  <si>
+    <t>2023/09/22</t>
+  </si>
+  <si>
+    <t>2023/09/23</t>
+  </si>
+  <si>
+    <t>2023/09/24</t>
+  </si>
+  <si>
+    <t>2023/09/25</t>
+  </si>
+  <si>
+    <t>2023/09/26</t>
+  </si>
+  <si>
+    <t>2023/09/27</t>
+  </si>
+  <si>
+    <t>2023/09/28</t>
+  </si>
+  <si>
+    <t>2023/09/29</t>
+  </si>
+  <si>
+    <t>2023/09/30</t>
+  </si>
+  <si>
+    <t>2023/10/01</t>
+  </si>
+  <si>
+    <t>2023/10/02</t>
+  </si>
+  <si>
+    <t>2023/10/03</t>
+  </si>
+  <si>
+    <t>2023/10/04</t>
+  </si>
+  <si>
+    <t>2023/10/05</t>
+  </si>
+  <si>
+    <t>2023/10/06</t>
+  </si>
+  <si>
+    <t>2023/10/07</t>
+  </si>
+  <si>
+    <t>2023/10/08</t>
+  </si>
+  <si>
+    <t>2023/10/09</t>
+  </si>
+  <si>
+    <t>2023/10/10</t>
+  </si>
+  <si>
+    <t>2023/10/11</t>
+  </si>
+  <si>
+    <t>2023/10/12</t>
+  </si>
+  <si>
+    <t>2023/10/13</t>
+  </si>
+  <si>
+    <t>2023/10/14</t>
+  </si>
+  <si>
+    <t>2023/10/15</t>
+  </si>
+  <si>
+    <t>2023/10/16</t>
+  </si>
+  <si>
+    <t>2023/10/17</t>
+  </si>
+  <si>
+    <t>2023/10/18</t>
+  </si>
+  <si>
+    <t>2023/10/19</t>
+  </si>
+  <si>
+    <t>2023/10/20</t>
   </si>
   <si>
     <t>--:-- --:--
@@ -109,37 +127,79 @@
     <t>Farag</t>
   </si>
   <si>
-    <t>07:24 17:24
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:28 19:43
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:35 16:14
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:47 17:31
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:28 18:10
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:11 18:01
+    <t>07:56 18:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:36 17:35
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:26 17:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:10 18:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:57 18:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:59 18:07
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:18 18:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:49 18:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:29 20:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:57 19:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:25 17:32
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:45 19:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>07:39 18:13
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -148,37 +208,13 @@
     <t>Mai</t>
   </si>
   <si>
-    <t>09:04 17:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:06 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:25 15:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:16 17:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:17 17:23
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:30 18:43
+    <t>09:32 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:49 17:15
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -190,49 +226,73 @@
 --:-- --:--</t>
   </si>
   <si>
-    <t>09:16 18:27
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:38 17:49
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:28
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:36 18:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:47 18:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>--:-- 17:33
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:56 17:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:52 16:53
+    <t>09:17 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:32 17:31
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 17:37
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:15 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:35 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:20 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:41 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:24 17:23
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:05 18:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 17:02
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -241,43 +301,37 @@
     <t>Aaziz</t>
   </si>
   <si>
-    <t>08:45 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:03 14:19
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:44 17:24
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:21 17:58
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>13:38 18:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:19 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>12:16 16:53
+    <t>09:22 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>14:59 18:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:15 17:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 13:41
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:09 17:19
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:04 16:54
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -286,79 +340,85 @@
     <t>Yasser</t>
   </si>
   <si>
-    <t>16:18 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:14 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:07 16:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:19 17:17
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:25 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:37 13:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:19 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:08 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:33 17:53
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:40 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:33 17:31
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:19 17:13
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 12:36
+    <t>09:14 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:19 17:14
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:30 17:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:27 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:32 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:26 13:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:43 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:07 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:22 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:19
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -367,43 +427,31 @@
     <t>Abdrahman</t>
   </si>
   <si>
-    <t>09:39 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:48 17:16
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>11:54 15:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:44 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:23 17:44
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:18 16:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:51 17:11
+    <t>09:19 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:58 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:49 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:51
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>14:09 --:--
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -412,37 +460,49 @@
     <t>Walid Radwan</t>
   </si>
   <si>
-    <t>10:11 15:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:20 15:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:13 18:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>11:50 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>16:23 18:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:14 15:54
+    <t>09:22 15:41
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>12:09 18:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:15 18:11
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:16 13:40
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:23 17:49
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:30 20:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 18:45
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>11:53 18:47
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -451,61 +511,61 @@
     <t>M Sheref</t>
   </si>
   <si>
-    <t>08:59 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:32 17:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:28 16:07
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:44 17:22
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>16:05 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>10:22 17:53
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:57 17:14
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:12 17:13
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:05 18:47
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:42 17:12
+    <t>09:46 16:31
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:46 16:52
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:23 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:29 15:42
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:10 16:55
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:52 14:49
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:04
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -514,100 +574,88 @@
     <t>Msaeed</t>
   </si>
   <si>
-    <t>08:14 18:56
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:06 17:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:44 18:35
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:44 18:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:54 18:55
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:27 17:33
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:48 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
     <t>Bassem</t>
   </si>
   <si>
-    <t>07:55 16:28
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>07:30 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:37 17:09
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:36 10:20
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:41 17:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:46 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:51 17:34
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:59 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:40 17:10
+    <t>08:54 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:09 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:41 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:48 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:54 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:46 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:01 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:51 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:00 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:49 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:40 17:05
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>14:02 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:47 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:33 17:04
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -619,67 +667,49 @@
     <t>A Fayez</t>
   </si>
   <si>
-    <t>08:29 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:35 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:37 13:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:32 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:39 17:34
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:34 17:00
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:30 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:36 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:31 12:36
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:38 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>06:54 --:--
+    <t>08:40 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:24 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:26 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:31 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:35 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>14:02 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:16 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:19 17:01
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -688,109 +718,298 @@
     <t>Amr</t>
   </si>
   <si>
-    <t>09:40 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:36 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:19 16:02
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:10 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:26 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:02 16:59
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:29 17:52
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:23 17:04
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:52 17:01
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:13 17:15
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:32 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:22 17:03
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Habiba</t>
-  </si>
-  <si>
-    <t>09:00 17:08
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>09:14 17:05
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>17:06 17:11
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>Habibaa</t>
-  </si>
-  <si>
-    <t>10:36 --:--
---:-- --:--
---:-- --:--
---:-- --:--</t>
-  </si>
-  <si>
-    <t>08:58 --:--
+    <t>13:22 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:39 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:24 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:03 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 18:57
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>13:06 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:59 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:37 17:42
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:57 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:13 17:22
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:06 18:12
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 18:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>09:09 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:17 17:13
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:14 17:09
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:10
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:11 17:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:05 17:18
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:03 17:08
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:18 17:25
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:02 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:22 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:12 17:06
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:06 17:17
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:08 17:24
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>09:04 17:03
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>M Yehia</t>
+  </si>
+  <si>
+    <t>08:57 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:52 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:45 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:49 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 17:01
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:51 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:50 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:47 17:02
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>10:08 14:40
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:11 17:04
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:56 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:55 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:53 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:45 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>11:35 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:44 17:00
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:46 --:--
+--:-- --:--
+--:-- --:--
+--:-- --:--</t>
+  </si>
+  <si>
+    <t>08:47 --:--
 --:-- --:--
 --:-- --:--
 --:-- --:--</t>
@@ -799,7 +1018,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -823,17 +1042,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -869,13 +1088,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,26 +1478,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="256" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:32" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1341,1041 +1563,1499 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="63" customHeight="1">
+    <row r="2" spans="1:32" ht="63" customHeight="1">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="63" customHeight="1">
+    <row r="3" spans="1:32" ht="63" customHeight="1">
       <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="63" customHeight="1">
+    <row r="4" spans="1:32" ht="63" customHeight="1">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="63" customHeight="1">
+    <row r="5" spans="1:32" ht="63" customHeight="1">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>26</v>
+      <c r="AF5" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="63" customHeight="1">
+    <row r="6" spans="1:32" ht="63" customHeight="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="63" customHeight="1">
+    <row r="7" spans="1:32" ht="63" customHeight="1">
       <c r="A7" s="4">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="63" customHeight="1">
+    <row r="8" spans="1:32" ht="63" customHeight="1">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="63" customHeight="1">
+    <row r="9" spans="1:32" ht="63" customHeight="1">
       <c r="A9" s="4">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="63" customHeight="1">
+    <row r="10" spans="1:32" ht="63" customHeight="1">
       <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>26</v>
+      <c r="AC10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="63" customHeight="1">
+    <row r="11" spans="1:32" ht="63" customHeight="1">
       <c r="A11" s="4">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="63" customHeight="1">
+    <row r="12" spans="1:32" ht="63" customHeight="1">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>128</v>
+      <c r="AF12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="63" customHeight="1">
+    <row r="13" spans="1:32" ht="63" customHeight="1">
       <c r="A13" s="4">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="63" customHeight="1">
-      <c r="A14" s="1">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>26</v>
+    <row r="14" spans="1:32" ht="63" customHeight="1">
+      <c r="A14" s="4">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="63" customHeight="1">
-      <c r="A15" s="4">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>26</v>
+    <row r="15" spans="1:32" ht="63" customHeight="1">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="63" customHeight="1">
+      <c r="A16" s="4">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/uploads/penta3d.xlsx
+++ b/HRBackend/uploads/penta3d.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\Oct 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ATT\2023\Oct 2023\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCBC737-42A5-4A41-87B7-87144C366229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B3B401-7A8E-4A16-978B-C49595025110}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AttendanceRecord" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="190">
   <si>
     <t>Employee ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
     <t>2023/09/21</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
     <t>2023/10/19</t>
   </si>
   <si>
-    <t>2023/10/20</t>
+    <t>Company</t>
   </si>
   <si>
     <t>--:-- --:--
@@ -1481,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1497,7 +1500,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1593,61 +1596,61 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>38</v>
@@ -1662,13 +1665,13 @@
         <v>41</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>43</v>
@@ -1683,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="63" customHeight="1">
@@ -1691,19 +1694,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>50</v>
@@ -1715,37 +1718,37 @@
         <v>52</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>54</v>
@@ -1760,13 +1763,13 @@
         <v>57</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="4" t="s">
         <v>59</v>
@@ -1781,7 +1784,7 @@
         <v>62</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="63" customHeight="1">
@@ -1789,40 +1792,40 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>65</v>
@@ -1834,52 +1837,52 @@
         <v>67</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="63" customHeight="1">
@@ -1887,19 +1890,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>73</v>
@@ -1911,37 +1914,37 @@
         <v>75</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>77</v>
@@ -1956,13 +1959,13 @@
         <v>80</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="4" t="s">
         <v>82</v>
@@ -1974,10 +1977,10 @@
         <v>84</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="63" customHeight="1">
@@ -1985,97 +1988,97 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="63" customHeight="1">
@@ -2083,40 +2086,40 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>93</v>
@@ -2128,52 +2131,52 @@
         <v>95</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>98</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="63" customHeight="1">
@@ -2181,61 +2184,61 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>103</v>
@@ -2250,28 +2253,28 @@
         <v>106</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>110</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="63" customHeight="1">
@@ -2279,97 +2282,97 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="63" customHeight="1">
@@ -2377,61 +2380,61 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>118</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>120</v>
@@ -2446,28 +2449,28 @@
         <v>123</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="63" customHeight="1">
@@ -2475,97 +2478,97 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="63" customHeight="1">
@@ -2573,97 +2576,97 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>133</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>123</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="63" customHeight="1">
@@ -2671,61 +2674,61 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>141</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>143</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>146</v>
@@ -2740,28 +2743,28 @@
         <v>149</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="63" customHeight="1">
@@ -2769,19 +2772,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>157</v>
@@ -2793,16 +2796,16 @@
         <v>159</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>161</v>
@@ -2814,37 +2817,37 @@
         <v>163</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="4" t="s">
         <v>165</v>
@@ -2859,7 +2862,7 @@
         <v>168</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="63" customHeight="1">
@@ -2867,64 +2870,64 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>177</v>
@@ -2936,13 +2939,13 @@
         <v>179</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>181</v>
@@ -2951,13 +2954,13 @@
         <v>182</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="63" customHeight="1">
@@ -2965,85 +2968,85 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>186</v>
@@ -3055,7 +3058,7 @@
         <v>188</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
